--- a/Data/Data cleaned/data_clean_LFP_16.xlsx
+++ b/Data/Data cleaned/data_clean_LFP_16.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,158 @@
         <v>7.181869159252445</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>704.468021740405</v>
+      </c>
+      <c r="B55">
+        <v>6.997731150330898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>717.5254041029735</v>
+      </c>
+      <c r="B56">
+        <v>7.517285402759819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>730.5823249081716</v>
+      </c>
+      <c r="B57">
+        <v>7.733355628665162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>743.640950412925</v>
+      </c>
+      <c r="B58">
+        <v>7.880468220442463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>756.699893068861</v>
+      </c>
+      <c r="B59">
+        <v>7.960919938975305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>769.7597255109449</v>
+      </c>
+      <c r="B60">
+        <v>8.21037489694881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>782.8203760504363</v>
+      </c>
+      <c r="B61">
+        <v>8.298519972333626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>795.8787255009917</v>
+      </c>
+      <c r="B62">
+        <v>8.422850219200519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>808.9381659732217</v>
+      </c>
+      <c r="B63">
+        <v>8.589768931806951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>821.9992254716046</v>
+      </c>
+      <c r="B64">
+        <v>8.936345187271399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>835.0605777406954</v>
+      </c>
+      <c r="B65">
+        <v>9.088935054899419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>848.1199354674478</v>
+      </c>
+      <c r="B66">
+        <v>9.230244390905735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>861.1797167102011</v>
+      </c>
+      <c r="B67">
+        <v>9.319411040932801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>874.2399900987964</v>
+      </c>
+      <c r="B68">
+        <v>9.459459286945293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>887.2991779203561</v>
+      </c>
+      <c r="B69">
+        <v>9.623945399640638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>900.3594707900253</v>
+      </c>
+      <c r="B70">
+        <v>9.736027289264731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>913.4198948757083</v>
+      </c>
+      <c r="B71">
+        <v>9.92096045397915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>926.4821960283043</v>
+      </c>
+      <c r="B72">
+        <v>10.05328155167249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>939.5474783971415</v>
+      </c>
+      <c r="B73">
+        <v>10.64040306810965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
